--- a/vignettes/Alameda-May4-v4 output.xlsx
+++ b/vignettes/Alameda-May4-v4 output.xlsx
@@ -485,7 +485,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-04 23:43:14"</t>
+    <t xml:space="preserve">[1] "2020-05-05 10:44:10"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v4 output.xlsx
+++ b/vignettes/Alameda-May4-v4 output.xlsx
@@ -485,7 +485,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-05 11:28:49"</t>
+    <t xml:space="preserve">[1] "2020-05-05 12:55:53"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v4 output.xlsx
+++ b/vignettes/Alameda-May4-v4 output.xlsx
@@ -485,7 +485,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-05 12:55:53"</t>
+    <t xml:space="preserve">[1] "2020-05-05 13:14:44"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v4 output.xlsx
+++ b/vignettes/Alameda-May4-v4 output.xlsx
@@ -17,22 +17,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">bestguess</t>
+    <t xml:space="preserve">upp</t>
   </si>
   <si>
     <t xml:space="preserve">notes</t>
   </si>
   <si>
     <t xml:space="preserve">Posterior Distribution, niter = 0
-Very low number of iterations, DO NOT use for inference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bestguess rejected</t>
+No credibility interval available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User's Prior Projection rejected</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -77,7 +77,733 @@
     <t xml:space="preserve">1:                            TRUE         FALSE                  10</t>
   </si>
   <si>
-    <t xml:space="preserve">$best.guess.params</t>
+    <t xml:space="preserve">$devlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quartz_off_screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$`Parameters with Distributions`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      internal.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:                   weight.labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:               parameter.weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:                      r0.initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:                   latent.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:    illness.length.given.nonhosp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          infectious.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:               prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:             hosp.length.of.stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:                        prop.icu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:                       prop.vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:              intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        intervention1.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:       intervention1.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:              intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        intervention2.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:       intervention2.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:              intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        intervention3.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:       intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: patients.in.hosp.are.infectious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:                   use.hosp.rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              external.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:                                                                    &lt;NA&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:                                                                  Priors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:                       Basic reproductive number R0 before Intervention1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:    Number of Days from Infection to Becoming Infectious (Latent Period)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:                                       Duration of infectiousness (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:             Time from onset of infectiousness to hospitalization (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:                               Percent of Infected that are Hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:                                  Average Hospital Length of Stay (Days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: Percent of Hospitalized COVID-19 Patients That are Currently in the ICU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:    Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:                                              Date of first intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:                                             Date of second intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:                                              Date of third intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:                                     Patients in hospital are infectious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           low     midlow        mid    midhigh       high</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:         NA         NA Best Guess         NA         NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:       0.05       0.15        0.6       0.15       0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:        2.5          3          4          4        4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:          0          2          3          4          5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:          3          4          5          6          7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          4          5          6          7          8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:       0.01       0.02       0.04       0.05       0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:          6          8         10         12         14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:        0.4       0.42       0.45       0.52       0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:        0.8       0.82       0.85       0.87        0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-03-06 2020-03-06 2020-03-06 2020-03-06 2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        0.4        0.5        0.6        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:          3          5          7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-03-16 2020-03-16 2020-03-16 2020-03-16 2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        0.3        0.4       0.45        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:          3          5          7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-06-01 2020-06-01 2020-06-01 2020-06-01 2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        1.1        1.2        1.5        1.7          2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:          3          5          7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$`Model Inputs`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        internal.name            external.name      value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   total.population Number of People in Area    1671000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: start.display.date    Projection Start Date 2020-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:           end.date      Projection End Date 2020-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$`Hospitilization Data`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Date LowerBound UpperBound</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01   51.88321   59.66569</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02   56.86563   65.39548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03   61.68362   70.93617</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04   66.26620   76.20613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05   70.60557   81.19641</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06   74.69862   85.90341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07   78.82360   90.64714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08   82.50392   94.87951</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09   85.20577   97.98664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10   87.19809  100.27781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-04-11   88.66911  101.96948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12: 2020-04-12   89.34864  102.75094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13: 2020-04-13   88.25265  101.49055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-04-14   86.63990   99.63588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15: 2020-04-15   85.23594   98.02133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16: 2020-04-17   84.00665   96.60765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-04-18   83.83743   96.41305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: 2020-04-19   83.86506   96.44481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19: 2020-04-20   83.89666   96.48116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: 2020-04-21   83.85270   96.43061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 2020-04-22   83.14715   95.61923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: 2020-04-23   82.40143   94.76164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: 2020-04-24   82.17643   94.50289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: 2020-04-25   81.80076   94.07088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25: 2020-04-26   81.04030   93.19635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26: 2020-04-27   80.07035   92.08090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: 2020-04-28   78.38229   90.13963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28: 2020-04-29   76.64307   88.13953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: 2020-04-30   75.31391   86.61100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30: 2020-05-01   74.15291   85.27584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31: 2020-05-02   73.32236   84.32072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: 2020-05-03   72.73400   83.64410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$Internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               internal.name      value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:          search.max.iter         20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:          search.expander          2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:      search.num.init.exp          9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:          max.nonconverge       0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:              random.seed      12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:           output.filestr         NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: add.timestamp.to.filestr      FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:      min.obs.date.to.fit         NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:      max.obs.date.to.fit         NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:          main.iterations          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:    simulation.start.date 2020-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:   lower.bound.multiplier        0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:   upper.bound.multiplier        1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:       required.in.bounds          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:            show.progress       TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$time.of.run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "2020-05-07 00:56:57"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$LEMMA.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     version </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"0.3.0.9004" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$hosp.bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          date    lower     upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01 51.88321  59.66569</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02 56.86563  65.39548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03 61.68362  70.93617</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04 66.26620  76.20613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05 70.60557  81.19641</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06 74.69862  85.90341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07 78.82360  90.64714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08 82.50392  94.87951</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09 85.20577  97.98664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10 87.19809 100.27781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-04-11 88.66911 101.96948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12: 2020-04-12 89.34864 102.75094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13: 2020-04-13 88.25265 101.49055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-04-14 86.63990  99.63588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15: 2020-04-15 85.23594  98.02133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16: 2020-04-17 84.00665  96.60765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-04-18 83.83743  96.41305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: 2020-04-19 83.86506  96.44481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19: 2020-04-20 83.89666  96.48116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: 2020-04-21 83.85270  96.43061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 2020-04-22 83.14715  95.61923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: 2020-04-23 82.40143  94.76164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: 2020-04-24 82.17643  94.50289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: 2020-04-25 81.80076  94.07088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25: 2020-04-26 81.04030  93.19635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26: 2020-04-27 80.07035  92.08090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: 2020-04-28 78.38229  90.13963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28: 2020-04-29 76.64307  88.13953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: 2020-04-30 75.31391  86.61100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30: 2020-05-01 74.15291  85.27584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31: 2020-05-02 73.32236  84.32072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: 2020-05-03 72.73400  83.64410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$search.max.iter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$search.expander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$search.num.init.exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$max.nonconverge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$random.seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$output.filestr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "Alameda-May4-v4 output"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$add.timestamp.to.filestr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$min.obs.date.to.fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$max.obs.date.to.fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$main.iterations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$simulation.start.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "2020-01-23"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$lower.bound.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$upper.bound.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$required.in.bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$show.progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$plot.observed.data.long.term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$plot.observed.data.short.term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$lower.bound.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "Confirmed COVID19"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$upper.bound.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "Probable COVID19"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$model.inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$model.inputs$total.population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 1671000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$model.inputs$start.display.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "2020-03-15"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$model.inputs$end.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "2020-05-01"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$observed.data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          date     hosp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01 55.77445</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02 61.13056</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03 66.30990</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04 71.23616</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05 75.90099</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06 80.30101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07 84.73537</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08 88.69171</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09 91.59621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10 93.73795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-04-11 95.31930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12: 2020-04-12 96.04979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13: 2020-04-13 94.87160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-04-14 93.13789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15: 2020-04-15 91.62863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16: 2020-04-17 90.30715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-04-18 90.12524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: 2020-04-19 90.15493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19: 2020-04-20 90.18891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: 2020-04-21 90.14165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 2020-04-22 89.38319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: 2020-04-23 88.58154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: 2020-04-24 88.33966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: 2020-04-25 87.93582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25: 2020-04-26 87.11832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26: 2020-04-27 86.07562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: 2020-04-28 84.26096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28: 2020-04-29 82.39130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: 2020-04-30 80.96246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30: 2020-05-01 79.71437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31: 2020-05-02 78.82154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: 2020-05-03 78.18905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$upp.params</t>
   </si>
   <si>
     <t xml:space="preserve">1:          4             3                            5              0.04</t>
@@ -99,720 +825,6 @@
   </si>
   <si>
     <t xml:space="preserve">1:                            TRUE          TRUE                   9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$devlist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quartz_off_screen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$`Parameters with Distributions`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      internal.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:                   weight.labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:               parameter.weights</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:                      r0.initial</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:                   latent.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:    illness.length.given.nonhosp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:          infectious.to.hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:               prop.hospitalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:             hosp.length.of.stay</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:                        prop.icu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:                       prop.vent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:              intervention1.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:        intervention1.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:       intervention1.smooth.days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:              intervention2.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:        intervention2.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:       intervention2.smooth.days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:              intervention3.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:        intervention3.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:       intervention3.smooth.days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: patients.in.hosp.are.infectious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:                   use.hosp.rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                              external.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:                                                                    &lt;NA&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:                                                                  Priors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:                       Basic reproductive number R0 before Intervention1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:    Number of Days from Infection to Becoming Infectious (Latent Period)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:                                       Duration of infectiousness (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:             Time from onset of infectiousness to hospitalization (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:                               Percent of Infected that are Hospitalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:                                  Average Hospital Length of Stay (Days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: Percent of Hospitalized COVID-19 Patients That are Currently in the ICU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:    Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:                                              Date of first intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:                                             Date of second intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:                                              Date of third intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:                                     Patients in hospital are infectious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           low     midlow        mid    midhigh       high</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:         NA         NA Best Guess         NA         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:       0.05       0.15        0.6       0.15       0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:        2.5          3          4          4        4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:          0          2          3          4          5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:          3          4          5          6          7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:          4          5          6          7          8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:       0.01       0.02       0.04       0.05       0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:          6          8         10         12         14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:        0.4       0.42       0.45       0.52       0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:        0.8       0.82       0.85       0.87        0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-03-06 2020-03-06 2020-03-06 2020-03-06 2020-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:        0.4        0.5        0.6        0.8          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-03-16 2020-03-16 2020-03-16 2020-03-16 2020-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:        0.3        0.4       0.45        0.8          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-06-01 2020-06-01 2020-06-01 2020-06-01 2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:        1.1        1.2        1.5        1.7          2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$`Model Inputs`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        internal.name            external.name      value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   total.population Number of People in Area    1671000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2: start.display.date    Projection Start Date 2020-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:           end.date      Projection End Date 2020-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$`Hospitilization Data`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Date LowerBound UpperBound</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1: 2020-04-01   51.88321   59.66569</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2: 2020-04-02   56.86563   65.39548</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3: 2020-04-03   61.68362   70.93617</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4: 2020-04-04   66.26620   76.20613</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5: 2020-04-05   70.60557   81.19641</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6: 2020-04-06   74.69862   85.90341</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: 2020-04-07   78.82360   90.64714</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8: 2020-04-08   82.50392   94.87951</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: 2020-04-09   85.20577   97.98664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10: 2020-04-10   87.19809  100.27781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-04-11   88.66911  101.96948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12: 2020-04-12   89.34864  102.75094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13: 2020-04-13   88.25265  101.49055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-04-14   86.63990   99.63588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15: 2020-04-15   85.23594   98.02133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16: 2020-04-17   84.00665   96.60765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-04-18   83.83743   96.41305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18: 2020-04-19   83.86506   96.44481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19: 2020-04-20   83.89666   96.48116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: 2020-04-21   83.85270   96.43061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21: 2020-04-22   83.14715   95.61923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22: 2020-04-23   82.40143   94.76164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23: 2020-04-24   82.17643   94.50289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24: 2020-04-25   81.80076   94.07088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25: 2020-04-26   81.04030   93.19635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26: 2020-04-27   80.07035   92.08090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27: 2020-04-28   78.38229   90.13963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28: 2020-04-29   76.64307   88.13953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29: 2020-04-30   75.31391   86.61100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30: 2020-05-01   74.15291   85.27584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31: 2020-05-02   73.32236   84.32072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32: 2020-05-03   72.73400   83.64410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$Internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               internal.name      value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:          search.max.iter         20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:          search.expander          2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:      search.num.init.exp          9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:          max.nonconverge       0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:              random.seed      12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:           output.filestr         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: add.timestamp.to.filestr      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:      min.obs.date.to.fit         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:      max.obs.date.to.fit         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:          main.iterations          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:    simulation.start.date 2020-01-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:   lower.bound.multiplier        0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:   upper.bound.multiplier        1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:       required.in.bounds          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:            show.progress       TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$time.of.run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "2020-05-05 13:14:44"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$LEMMA.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     version </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"0.3.0.9003" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$hosp.bounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          date    lower     upper</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1: 2020-04-01 51.88321  59.66569</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2: 2020-04-02 56.86563  65.39548</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3: 2020-04-03 61.68362  70.93617</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4: 2020-04-04 66.26620  76.20613</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5: 2020-04-05 70.60557  81.19641</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6: 2020-04-06 74.69862  85.90341</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: 2020-04-07 78.82360  90.64714</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8: 2020-04-08 82.50392  94.87951</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: 2020-04-09 85.20577  97.98664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10: 2020-04-10 87.19809 100.27781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-04-11 88.66911 101.96948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12: 2020-04-12 89.34864 102.75094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13: 2020-04-13 88.25265 101.49055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-04-14 86.63990  99.63588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15: 2020-04-15 85.23594  98.02133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16: 2020-04-17 84.00665  96.60765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-04-18 83.83743  96.41305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18: 2020-04-19 83.86506  96.44481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19: 2020-04-20 83.89666  96.48116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: 2020-04-21 83.85270  96.43061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21: 2020-04-22 83.14715  95.61923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22: 2020-04-23 82.40143  94.76164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23: 2020-04-24 82.17643  94.50289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24: 2020-04-25 81.80076  94.07088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25: 2020-04-26 81.04030  93.19635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26: 2020-04-27 80.07035  92.08090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27: 2020-04-28 78.38229  90.13963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28: 2020-04-29 76.64307  88.13953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29: 2020-04-30 75.31391  86.61100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30: 2020-05-01 74.15291  85.27584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31: 2020-05-02 73.32236  84.32072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32: 2020-05-03 72.73400  83.64410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$search.max.iter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$search.expander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$search.num.init.exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$max.nonconverge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$random.seed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$output.filestr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "Alameda-May4-v4 output"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$add.timestamp.to.filestr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$min.obs.date.to.fit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$max.obs.date.to.fit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$main.iterations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$simulation.start.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "2020-01-23"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$lower.bound.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$upper.bound.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$required.in.bounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$show.progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$plot.observed.data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$include.plot.caption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$model.inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$model.inputs$total.population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 1671000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$model.inputs$start.display.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "2020-03-15"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$model.inputs$end.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "2020-05-01"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$observed.data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          date     hosp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1: 2020-04-01 55.77445</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2: 2020-04-02 61.13056</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3: 2020-04-03 66.30990</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4: 2020-04-04 71.23616</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5: 2020-04-05 75.90099</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6: 2020-04-06 80.30101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: 2020-04-07 84.73537</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8: 2020-04-08 88.69171</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: 2020-04-09 91.59621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10: 2020-04-10 93.73795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-04-11 95.31930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12: 2020-04-12 96.04979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13: 2020-04-13 94.87160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-04-14 93.13789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15: 2020-04-15 91.62863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16: 2020-04-17 90.30715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-04-18 90.12524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18: 2020-04-19 90.15493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19: 2020-04-20 90.18891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: 2020-04-21 90.14165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21: 2020-04-22 89.38319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22: 2020-04-23 88.58154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23: 2020-04-24 88.33966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24: 2020-04-25 87.93582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25: 2020-04-26 87.11832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26: 2020-04-27 86.07562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27: 2020-04-28 84.26096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28: 2020-04-29 82.39130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29: 2020-04-30 80.96246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30: 2020-05-01 79.71437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31: 2020-05-02 78.82154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32: 2020-05-03 78.18905</t>
   </si>
 </sst>
 </file>
@@ -4003,17 +4015,17 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -4023,1017 +4035,1017 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>148</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>180</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>190</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223">
@@ -5043,12 +5055,12 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226">
@@ -5058,12 +5070,12 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>5</v>
+        <v>206</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229">
@@ -5073,12 +5085,12 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>5</v>
+        <v>208</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>208</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232">
@@ -5088,27 +5100,27 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>210</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>211</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238">
@@ -5118,12 +5130,12 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>213</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
@@ -5133,77 +5145,77 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>217</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>219</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>5</v>
+        <v>219</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="257">
@@ -5218,7 +5230,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="260">
@@ -5228,241 +5240,271 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>5</v>
+        <v>225</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>225</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>5</v>
+        <v>227</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>5</v>
+        <v>230</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>5</v>
+        <v>233</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>5</v>
+        <v>234</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>258</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>260</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
         <v>5</v>
       </c>
     </row>

--- a/vignettes/Alameda-May4-v4 output.xlsx
+++ b/vignettes/Alameda-May4-v4 output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,13 +50,13 @@
     <t xml:space="preserve">   hosp.length.of.stay  prop.icu prop.vent intervention1.date</t>
   </si>
   <si>
-    <t xml:space="preserve">1:                  12 0.3827197 0.8297564         2020-03-06</t>
+    <t xml:space="preserve">1:                  12 0.3827197 0.8297564         2020-03-07</t>
   </si>
   <si>
     <t xml:space="preserve">   intervention1.multiplier intervention1.smooth.days intervention2.date</t>
   </si>
   <si>
-    <t xml:space="preserve">1:                0.6784383                         7         2020-03-16</t>
+    <t xml:space="preserve">1:                0.6784383                         7         2020-03-17</t>
   </si>
   <si>
     <t xml:space="preserve">   intervention2.multiplier intervention2.smooth.days intervention3.date</t>
@@ -224,70 +224,70 @@
     <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
   </si>
   <si>
-    <t xml:space="preserve">           low     midlow        mid    midhigh       high</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:         NA         NA Best Guess         NA         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:       0.05       0.15        0.6       0.15       0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:        2.5          3          4          4        4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:          0          2          3          4          5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:          3          4          5          6          7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:          4          5          6          7          8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:       0.01       0.02       0.04       0.05       0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:          6          8         10         12         14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:        0.4       0.42       0.45       0.52       0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:        0.8       0.82       0.85       0.87        0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-03-06 2020-03-06 2020-03-06 2020-03-06 2020-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:        0.4        0.5        0.6        0.8          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-03-16 2020-03-16 2020-03-16 2020-03-16 2020-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:        0.3        0.4       0.45        0.8          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-06-01 2020-06-01 2020-06-01 2020-06-01 2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:        1.1        1.2        1.5        1.7          2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
+    <t xml:space="preserve">           low     midlow                 mid    midhigh       high</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:         NA         NA User's "Best Guess"         NA         NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:       0.05       0.15                 0.6       0.15       0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:        2.5          3                   4          4        4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:          0          2                   3          4          5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:          3          4                   5          6          7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          4          5                   6          7          8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:       0.01       0.02                0.04       0.05       0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:          6          8                  10         12         14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:        0.4       0.42                0.45       0.52       0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:        0.8       0.82                0.85       0.87        0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-03-07 2020-03-07          2020-03-07 2020-03-07 2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        0.4        0.5                 0.6        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-03-17 2020-03-17          2020-03-17 2020-03-17 2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        0.3        0.4                0.45        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-06-01 2020-06-01          2020-06-01 2020-06-01 2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        1.1        1.2                 1.5        1.7          2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:      FALSE      FALSE                TRUE      FALSE      FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:      FALSE      FALSE                TRUE      FALSE      FALSE</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$`Model Inputs`</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">2: start.display.date    Projection Start Date 2020-03-15</t>
   </si>
   <si>
-    <t xml:space="preserve">3:           end.date      Projection End Date 2020-05-01</t>
+    <t xml:space="preserve">3:           end.date      Projection End Date 2020-07-01</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$`Hospitilization Data`</t>
@@ -410,58 +410,70 @@
     <t xml:space="preserve">$extras$Internal</t>
   </si>
   <si>
-    <t xml:space="preserve">               internal.name      value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:          search.max.iter         20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:          search.expander          2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:      search.num.init.exp          9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:          max.nonconverge       0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:              random.seed      12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:           output.filestr         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: add.timestamp.to.filestr      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:      min.obs.date.to.fit         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:      max.obs.date.to.fit         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:          main.iterations          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:    simulation.start.date 2020-01-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:   lower.bound.multiplier        0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:   upper.bound.multiplier        1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:       required.in.bounds          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:            show.progress       TRUE</t>
+    <t xml:space="preserve">                    internal.name             value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:               search.max.iter                20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:               search.expander                 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:           search.num.init.exp                 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:               max.nonconverge              0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:                   random.seed             12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:                output.filestr                NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:      add.timestamp.to.filestr             FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:           min.obs.date.to.fit                NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:           max.obs.date.to.fit                NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:               main.iterations                 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:         simulation.start.date        2020-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        lower.bound.multiplier               0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:        upper.bound.multiplier               1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:            required.in.bounds                 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:                 show.progress              TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:  plot.observed.data.long.term             FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: plot.observed.data.short.term              TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:             lower.bound.label Confirmed COVID19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:             upper.bound.label  Probable COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-07 00:56:57"</t>
+    <t xml:space="preserve">[1] "2020-05-07 13:12:34"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -698,7 +710,7 @@
     <t xml:space="preserve">$model.inputs$end.date</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-01"</t>
+    <t xml:space="preserve">[1] "2020-07-01"</t>
   </si>
   <si>
     <t xml:space="preserve">$observed.data</t>
@@ -812,10 +824,10 @@
     <t xml:space="preserve">   hosp.length.of.stay prop.icu prop.vent intervention1.date</t>
   </si>
   <si>
-    <t xml:space="preserve">1:                  10     0.45      0.85         2020-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                      0.6                         7         2020-03-16</t>
+    <t xml:space="preserve">1:                  10     0.45      0.85         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                      0.6                         7         2020-03-17</t>
   </si>
   <si>
     <t xml:space="preserve">1:                     0.45                         7         2020-06-01</t>
@@ -1189,7 +1201,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>9.80680216758997</v>
+        <v>8.41442604592556</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1200,7 +1212,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>11.5747178384817</v>
+        <v>10.0169411730781</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1211,7 +1223,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>13.5700908608112</v>
+        <v>11.8227263327313</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1222,7 +1234,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>15.8273087105768</v>
+        <v>13.8608357182906</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1233,7 +1245,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>18.3354129313844</v>
+        <v>16.1663909698522</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1244,7 +1256,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>21.060494372312</v>
+        <v>18.7281964698271</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1255,7 +1267,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>23.9535554019529</v>
+        <v>21.5116143228121</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1266,7 +1278,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>26.9547280166688</v>
+        <v>24.4665951995386</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1277,7 +1289,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>29.9967764723227</v>
+        <v>27.5319870463474</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1288,7 +1300,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>33.0085889013313</v>
+        <v>30.6391129677371</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1299,7 +1311,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>35.9186935586974</v>
+        <v>33.7153378022375</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1310,7 +1322,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>38.701540335473</v>
+        <v>36.687659777224</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1321,7 +1333,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>41.3525285232517</v>
+        <v>39.5299809902173</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1332,7 +1344,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43.876444996282</v>
+        <v>42.2376011475544</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1343,7 +1355,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>46.2820896590007</v>
+        <v>44.815408421481</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1354,7 +1366,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>48.5797648279055</v>
+        <v>47.2723898880604</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1365,7 +1377,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>50.7800973083141</v>
+        <v>49.6190671640376</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1376,7 +1388,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>52.8934858911999</v>
+        <v>51.8662932568668</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1387,7 +1399,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>54.9298461951688</v>
+        <v>54.024688222936</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1398,7 +1410,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>56.8984995813971</v>
+        <v>56.1043785384393</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1409,7 +1421,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>58.8081336831205</v>
+        <v>58.1148836295831</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1420,7 +1432,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>60.6667996405089</v>
+        <v>60.0650755519905</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1431,7 +1443,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>62.481928729104</v>
+        <v>61.9631761622563</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1442,7 +1454,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>64.2603594365889</v>
+        <v>63.8167740988076</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1453,7 +1465,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>66.00837011453</v>
+        <v>65.6328524350777</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1464,7 +1476,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>67.7317143858918</v>
+        <v>67.4178220271298</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1475,7 +1487,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>69.4356575796985</v>
+        <v>69.1775576760822</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1486,7 +1498,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>71.1250130821327</v>
+        <v>70.9174353396344</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1497,7 +1509,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>72.8041778697527</v>
+        <v>72.6423692581725</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1508,7 +1520,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>74.4771667361235</v>
+        <v>74.3568482453877</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1519,7 +1531,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>76.1476448926654</v>
+        <v>76.0649706442265</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1530,7 +1542,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>77.818958746125</v>
+        <v>77.7704776221308</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1541,7 +1553,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>79.4941647442779</v>
+        <v>79.4767846037365</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1552,7 +1564,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>81.176056247458</v>
+        <v>81.1870107303115</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1563,7 +1575,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>82.8671884322033</v>
+        <v>82.9040063026168</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1574,7 +1586,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>84.5699012688001</v>
+        <v>84.6303782136118</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1585,7 +1597,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>86.2863406397977</v>
+        <v>86.3685134136768</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1596,7 +1608,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>88.0184776839343</v>
+        <v>88.1206004768571</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1607,7 +1619,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>89.7681264611493</v>
+        <v>89.8886493543775</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1618,7 +1630,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>91.5369600408553</v>
+        <v>91.6745094131466</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1629,7 +1641,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>93.3265251185225</v>
+        <v>93.4798858636106</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1640,7 +1652,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>95.1382552657894</v>
+        <v>95.3063546842572</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1651,7 +1663,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>96.9734829174452</v>
+        <v>97.1553761502344</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1662,7 +1674,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>98.8334501953082</v>
+        <v>99.0283070716401</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1673,7 +1685,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>100.719318664683</v>
+        <v>100.926411843649</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1684,7 +1696,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>102.63217811406</v>
+        <v>102.850872406204</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1695,7 +1707,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>104.573054443319</v>
+        <v>104.802797205882</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1706,9 +1718,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>106.542916740054</v>
+        <v>106.783229247005</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>108.793153313345</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>110.833502435969</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>112.905163677099</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>115.008983294303</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>117.145771344039</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>119.316305778511</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>121.521336085062</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>123.761586512859</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>126.037758927517</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>128.350535330433</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>130.700580076117</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>133.088541817511</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>135.515055206363</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>137.980742372961</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>140.486214207107</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>143.032071459929</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>145.618905684104</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>148.247300028241</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>150.917829899473</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>153.631063506832</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>156.38756229662</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>159.18788128977</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>162.032569330094</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>164.922169251349</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>167.857217970154</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>170.83824651101</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>173.865779968992</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>176.940337415007</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>180.06243174801</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>183.232569498014</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>186.451250583331</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>189.718968025059</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>193.03620762149</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>196.487588657288</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>200.199265451276</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>204.320697511799</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>209.018674072436</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>214.477727595471</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>220.904242359708</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>228.533184008441</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>237.47605385191</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>247.797528922553</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>259.546740361002</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>272.770187201902</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>287.517185992056</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>303.842264371487</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>321.806286156313</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>341.477036219501</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>362.929564175946</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>386.246410946744</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>411.517770181065</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>438.84160608753</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>468.32373575365</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>500.07787750456</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>534.22566320466</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>570.896609974754</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>610.228044895257</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>652.364974603885</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>697.459890151216</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>745.672495998601</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>797.169350613641</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1742,7 +2425,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>4.41306097541549</v>
+        <v>3.7864917206665</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1753,7 +2436,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>5.20862302731679</v>
+        <v>4.50762352788513</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1764,7 +2447,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>6.10654088736503</v>
+        <v>5.32022684972906</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1775,7 +2458,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>7.12228891975957</v>
+        <v>6.23737607323075</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1786,7 +2469,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>8.25093581912297</v>
+        <v>7.27487593643348</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1797,7 +2480,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>9.47722246754041</v>
+        <v>8.42768841142217</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1808,7 +2491,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>10.7790999308788</v>
+        <v>9.68022644526543</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1819,7 +2502,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>12.1296276075009</v>
+        <v>11.0099678397924</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1830,7 +2513,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>13.4985494125452</v>
+        <v>12.3893941708563</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1841,7 +2524,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>14.8538650055991</v>
+        <v>13.7876008354817</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1852,7 +2535,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>16.1634121014138</v>
+        <v>15.1719020110069</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1863,7 +2546,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>17.4156931509628</v>
+        <v>16.5094468997508</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1874,7 +2557,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>18.6086378354632</v>
+        <v>17.7884914455978</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1885,7 +2568,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>19.7444002483269</v>
+        <v>19.0069205163995</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1896,7 +2579,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>20.8269403465503</v>
+        <v>20.1669337896665</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1907,7 +2590,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>21.8608941725575</v>
+        <v>21.2725754496272</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1918,7 +2601,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>22.8510437887413</v>
+        <v>22.3285802238169</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1929,7 +2612,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>23.8020686510399</v>
+        <v>23.33983196559</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1940,7 +2623,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>24.718430787826</v>
+        <v>24.3111097003212</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1951,7 +2634,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>25.6043248116287</v>
+        <v>25.2469703422977</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1962,7 +2645,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>26.4636601574042</v>
+        <v>26.1516976333124</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1973,7 +2656,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>27.300059838229</v>
+        <v>27.0292839983957</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1984,7 +2667,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>28.1168679280968</v>
+        <v>27.8834292730153</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1995,7 +2678,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>28.917161746465</v>
+        <v>28.7175483444634</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2006,7 +2689,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>29.7037665515385</v>
+        <v>29.5347835957849</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2017,7 +2700,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>30.4792714736513</v>
+        <v>30.3380199122084</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2028,7 +2711,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>31.2460459108643</v>
+        <v>31.129900954237</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2039,7 +2722,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>32.0062558869597</v>
+        <v>31.9128459028355</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2050,7 +2733,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>32.7618800413887</v>
+        <v>32.6890661661776</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2061,7 +2744,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>33.5147250312556</v>
+        <v>33.4605817104244</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2072,7 +2755,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>34.2664402016994</v>
+        <v>34.2292367899019</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2083,7 +2766,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>35.0185314357562</v>
+        <v>34.9967149299589</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2094,7 +2777,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>35.7723741349251</v>
+        <v>35.7645530716814</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2105,7 +2788,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>36.5292253113561</v>
+        <v>36.5341548286402</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2116,7 +2799,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>37.2902347944915</v>
+        <v>37.3068028361775</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2127,7 +2810,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>38.0564555709601</v>
+        <v>38.0836701961253</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2138,7 +2821,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>38.828853287909</v>
+        <v>38.8658310361546</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2149,7 +2832,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>39.6083149577704</v>
+        <v>39.6542702145857</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2160,7 +2843,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>40.3956569075172</v>
+        <v>40.4498922094699</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2171,7 +2854,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>41.1916320183849</v>
+        <v>41.253529235916</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2182,7 +2865,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>41.9969363033351</v>
+        <v>42.0659486386248</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2193,7 +2876,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>42.8122148696052</v>
+        <v>42.8878596079158</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2204,7 +2887,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>43.6380673128503</v>
+        <v>43.7199192676055</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2215,7 +2898,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>44.4750525878887</v>
+        <v>44.5627381822381</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2226,7 +2909,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>45.3236933991072</v>
+        <v>45.4168853296421</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2237,7 +2920,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>46.1844801513271</v>
+        <v>46.2828925827919</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2248,7 +2931,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>47.0578744994937</v>
+        <v>47.1612587426467</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2259,9 +2942,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>47.9443125330242</v>
+        <v>48.0524531611523</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>48.9569189910053</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>49.8750760961862</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>50.8073236546944</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>51.7540424824362</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>52.7155971048174</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>53.6923376003301</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>54.6846012382778</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>55.6927139307866</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>56.7169915173825</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>57.7577408986948</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>58.8152610342525</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>59.88984381788</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>60.9817748428632</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>62.0913340678323</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>63.2187963931982</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>64.3644321569679</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>65.5285075578468</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>66.7112850127086</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>67.913023454763</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>69.1339785780744</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>70.3744030334791</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>71.6345465803963</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>72.9146561985422</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>74.2149761631072</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>75.5357480865692</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>76.8772109299547</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>78.2396009860464</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>79.6231518367534</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>81.0280942866046</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>82.4546562741062</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>83.9030627624989</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>85.3735356112766</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>86.8662934296704</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>88.4194148957797</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>90.0896694530742</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>91.9443138803098</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="3" t="n">
+        <v>94.0584033325962</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="3" t="n">
+        <v>96.5149774179621</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>99.4069090618686</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="3" t="n">
+        <v>102.839932803798</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>106.86422423336</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="3" t="n">
+        <v>111.508888015149</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="3" t="n">
+        <v>116.796033162451</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="3" t="n">
+        <v>122.746584240856</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>129.382733696425</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="3" t="n">
+        <v>136.729018967169</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="3" t="n">
+        <v>144.812828770341</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="3" t="n">
+        <v>153.664666298775</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="3" t="n">
+        <v>163.318303879176</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="3" t="n">
+        <v>173.810884926035</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="3" t="n">
+        <v>185.182996581479</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="3" t="n">
+        <v>197.478722739389</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="3" t="n">
+        <v>210.745681089142</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="3" t="n">
+        <v>225.035044877052</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="3" t="n">
+        <v>240.401548442097</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="3" t="n">
+        <v>256.903474488639</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="3" t="n">
+        <v>274.602620202866</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="3" t="n">
+        <v>293.564238571748</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="3" t="n">
+        <v>313.856950568047</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="3" t="n">
+        <v>335.55262319937</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="3" t="n">
+        <v>358.726207776138</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2295,7 +3649,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>3.75110182910316</v>
+        <v>3.21851796256653</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -2306,7 +3660,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.42732957321927</v>
+        <v>3.83147999870236</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2317,7 +3671,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.19055975426028</v>
+        <v>4.5221928222697</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2328,7 +3682,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.05394558179563</v>
+        <v>5.30176966224614</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2339,7 +3693,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>7.01329544625453</v>
+        <v>6.18364454596845</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2350,7 +3704,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>8.05563909740935</v>
+        <v>7.16353514970885</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2361,7 +3715,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.16223494124698</v>
+        <v>8.22819247847561</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2372,7 +3726,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>10.3101834663758</v>
+        <v>9.35847266382353</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2383,7 +3737,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>11.4737670006635</v>
+        <v>10.5309850452279</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2394,7 +3748,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>12.6257852547592</v>
+        <v>11.7194607101595</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2405,7 +3759,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>13.7389002862017</v>
+        <v>12.8961167093558</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2416,7 +3770,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>14.8033391783184</v>
+        <v>14.0330298647882</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2427,7 +3781,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>15.8173421601438</v>
+        <v>15.1202177287581</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2438,7 +3792,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>16.7827402110779</v>
+        <v>16.1558824389395</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2449,7 +3803,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>17.7028992945678</v>
+        <v>17.1418937212165</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2460,7 +3814,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>18.5817600466739</v>
+        <v>18.0816891321831</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2471,7 +3825,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>19.4233872204301</v>
+        <v>18.9792931902444</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2482,7 +3836,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>20.2317583533839</v>
+        <v>19.8388571707515</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2493,7 +3847,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>21.0106661696521</v>
+        <v>20.664443245273</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2504,7 +3858,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>21.7636760898844</v>
+        <v>21.459924790953</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2515,7 +3869,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>22.4941111337936</v>
+        <v>22.2289429883155</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2526,7 +3880,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>23.2050508624947</v>
+        <v>22.9748913986364</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2537,7 +3891,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>23.8993377388823</v>
+        <v>23.700914882063</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2548,7 +3902,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>24.5795874844953</v>
+        <v>24.4099160927939</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2559,7 +3913,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>25.2482015688077</v>
+        <v>25.1045660564172</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2570,7 +3924,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>25.9073807526036</v>
+        <v>25.7873169253772</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2581,7 +3935,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>26.5591390242347</v>
+        <v>26.4604158111014</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2592,7 +3946,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>27.2053175039158</v>
+        <v>27.1259190174101</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2603,7 +3957,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>27.8475980351804</v>
+        <v>27.785706241251</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2614,7 +3968,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>28.4875162765673</v>
+        <v>28.4414944538608</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2625,7 +3979,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>29.1264741714445</v>
+        <v>29.0948512714166</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2636,7 +3990,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>29.7657517203928</v>
+        <v>29.747207690465</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2647,7 +4001,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>30.4065180146863</v>
+        <v>30.3998701109292</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2658,7 +4012,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>31.0498415146527</v>
+        <v>31.0540316043441</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2669,7 +4023,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>31.6966995753177</v>
+        <v>31.7107824107509</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2680,7 +4034,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>32.347987235316</v>
+        <v>32.3711196667065</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2691,7 +4045,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>33.0045252947226</v>
+        <v>33.0359563807314</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2702,7 +4056,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>33.6670677141049</v>
+        <v>33.7061296823979</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2713,7 +4067,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>34.3363083713896</v>
+        <v>34.3824083780494</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2724,7 +4078,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>35.0128872156271</v>
+        <v>35.0654998505286</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2735,7 +4089,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>35.6973958578348</v>
+        <v>35.7560563428311</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2746,7 +4100,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>36.3903826391644</v>
+        <v>36.4546806667284</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2757,7 +4111,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>37.0923572159228</v>
+        <v>37.1619313774646</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2768,7 +4122,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>37.8037946997054</v>
+        <v>37.8783274549023</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2779,7 +4133,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>38.5251393892411</v>
+        <v>38.6043525301958</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2790,7 +4144,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="4" t="n">
-        <v>39.256808128628</v>
+        <v>39.3404586953731</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2801,7 +4155,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="4" t="n">
-        <v>39.9991933245696</v>
+        <v>40.0870699312497</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2812,9 +4166,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="4" t="n">
-        <v>40.7526656530706</v>
+        <v>40.8445851869794</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>41.6133811423545</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="4" t="n">
+        <v>42.3938146817582</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="4" t="n">
+        <v>43.1862251064903</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="4" t="n">
+        <v>43.9909361100708</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>44.8082575390948</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="4" t="n">
+        <v>45.6384869602806</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="4" t="n">
+        <v>46.4819110525361</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="4" t="n">
+        <v>47.3388068411686</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="4" t="n">
+        <v>48.2094427897751</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>49.0940797638906</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>49.9929718791146</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="4" t="n">
+        <v>50.906367245198</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="4" t="n">
+        <v>51.8345086164337</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="4" t="n">
+        <v>52.7776339576574</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="4" t="n">
+        <v>53.7359769342185</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="4" t="n">
+        <v>54.7097673334227</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="4" t="n">
+        <v>55.6992314241697</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="4" t="n">
+        <v>56.7045922608023</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="4" t="n">
+        <v>57.7260699365485</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="4" t="n">
+        <v>58.7638817913633</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="4" t="n">
+        <v>59.8182425784572</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="4" t="n">
+        <v>60.8893645933369</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="4" t="n">
+        <v>61.9774577687608</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="4" t="n">
+        <v>63.0827297386411</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="4" t="n">
+        <v>64.2053858735838</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="4" t="n">
+        <v>65.3456292904615</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="4" t="n">
+        <v>66.5036608381395</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="4" t="n">
+        <v>67.6796790612404</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="4" t="n">
+        <v>68.8738801436139</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="4" t="n">
+        <v>70.0864578329903</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="4" t="n">
+        <v>71.317603348124</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="4" t="n">
+        <v>72.5675052695851</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="4" t="n">
+        <v>73.8363494152199</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="4" t="n">
+        <v>75.1565026614127</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="4" t="n">
+        <v>76.5762190351131</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="4" t="n">
+        <v>78.1526667982633</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="4" t="n">
+        <v>79.9496428327067</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="4" t="n">
+        <v>82.0377308052678</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="4" t="n">
+        <v>84.4958727025883</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="4" t="n">
+        <v>87.4139428832285</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="4" t="n">
+        <v>90.8345905983557</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="4" t="n">
+        <v>94.7825548128766</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="4" t="n">
+        <v>99.2766281880832</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="4" t="n">
+        <v>104.334596604727</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="4" t="n">
+        <v>109.975323641961</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="4" t="n">
+        <v>116.219666122094</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="4" t="n">
+        <v>123.09090445479</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="4" t="n">
+        <v>130.614966353959</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="4" t="n">
+        <v>138.8205582973</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="4" t="n">
+        <v>147.73925218713</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="4" t="n">
+        <v>157.405547094257</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="4" t="n">
+        <v>167.85691432848</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="4" t="n">
+        <v>179.133828925771</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="4" t="n">
+        <v>191.279788145494</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="4" t="n">
+        <v>204.341316175782</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="4" t="n">
+        <v>218.367953315343</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="4" t="n">
+        <v>233.412227172436</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="4" t="n">
+        <v>249.529602785986</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="4" t="n">
+        <v>266.77840798284</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>285.219729719465</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="4" t="n">
+        <v>304.917276609718</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2848,7 +4873,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>774.533739057788</v>
+        <v>691.075397572841</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -2859,7 +4884,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>886.898176384197</v>
+        <v>791.123644448755</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2870,7 +4895,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>992.760301608709</v>
+        <v>905.89244778567</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2881,7 +4906,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>1090.63373805781</v>
+        <v>1014.01889952859</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2892,7 +4917,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>1177.70027516774</v>
+        <v>1113.98474963995</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2903,7 +4928,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>1251.18113375964</v>
+        <v>1202.9114783657</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2914,7 +4939,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>1308.80981587916</v>
+        <v>1277.96091410749</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2925,7 +4950,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>1349.03206791454</v>
+        <v>1336.81819972032</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2936,7 +4961,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>1371.08427444697</v>
+        <v>1377.8960229688</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2947,7 +4972,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1394.30023304182</v>
+        <v>1400.41466923448</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2958,7 +4983,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>1418.41788439213</v>
+        <v>1424.12125203888</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2969,7 +4994,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>1443.30915637594</v>
+        <v>1448.74812827218</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2980,7 +5005,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>1468.90880625512</v>
+        <v>1474.16447653663</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2991,7 +5016,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>1495.18163367326</v>
+        <v>1500.30363264706</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3002,7 +5027,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>1522.10731642255</v>
+        <v>1527.12960866507</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3013,7 +5038,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1549.67334435779</v>
+        <v>1554.62160782862</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3024,7 +5049,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>1577.8716796502</v>
+        <v>1582.76680899539</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3035,7 +5060,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1606.69713645623</v>
+        <v>1611.556956231</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3046,7 +5071,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>1636.14655829383</v>
+        <v>1640.98670415109</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3057,7 +5082,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>1666.21836941224</v>
+        <v>1671.05277781981</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3068,7 +5093,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>1696.91230499164</v>
+        <v>1701.75351453671</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3079,7 +5104,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>1728.22922993011</v>
+        <v>1733.08858822648</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3090,7 +5115,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>1760.17100417307</v>
+        <v>1765.05882428463</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3101,7 +5126,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>1792.74037470771</v>
+        <v>1797.66606194698</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3112,7 +5137,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>1825.9408845672</v>
+        <v>1830.91304388609</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3123,7 +5148,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>1859.77679392743</v>
+        <v>1864.80332317599</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3134,7 +5159,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>1894.25301059727</v>
+        <v>1899.3411826038</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3145,7 +5170,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>1929.37502826229</v>
+        <v>1934.53156357231</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3156,7 +5181,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>1965.14887136578</v>
+        <v>1970.38000291851</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3167,7 +5192,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>2001.58104578573</v>
+        <v>2006.89257650819</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3178,7 +5203,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>2038.67849462503</v>
+        <v>2044.0758487474</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3189,7 +5214,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>2076.44855853341</v>
+        <v>2081.93682731325</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3200,7 +5225,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>2114.89894005296</v>
+        <v>2120.48292251013</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3211,7 +5236,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>2154.03767153678</v>
+        <v>2159.72191073254</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3222,7 +5247,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>2193.87308623837</v>
+        <v>2199.66190157394</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3233,7 +5258,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>2234.41379221162</v>
+        <v>2240.31130817112</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3244,7 +5269,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>2275.668648698</v>
+        <v>2281.67882041571</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3255,7 +5280,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>2317.64674471091</v>
+        <v>2323.77338070285</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3266,7 +5291,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>2360.35737955683</v>
+        <v>2366.60416192062</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3277,7 +5302,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>2403.8100450595</v>
+        <v>2410.18054741415</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3288,7 +5313,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>2448.01440927745</v>
+        <v>2454.51211268582</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3299,7 +5324,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>2492.9803015267</v>
+        <v>2499.60860861724</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3310,7 +5335,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>2538.71769853978</v>
+        <v>2545.47994602076</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3321,7 +5346,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>2585.23671160952</v>
+        <v>2592.13618134822</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3332,7 +5357,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>2632.54757458175</v>
+        <v>2639.58750340192</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3343,7 +5368,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>2680.66063257473</v>
+        <v>2687.84422090913</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3354,7 +5379,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>2729.5863313158</v>
+        <v>2736.91675083546</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3365,9 +5390,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="5" t="n">
-        <v>2779.33520699673</v>
+        <v>2786.81560732508</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>2837.55139116726</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>2889.13477969892</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>2941.57651706178</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>2994.88740474102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>3049.0782923194</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>3104.16006838754</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>3160.14365155649</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="5" t="n">
+        <v>3217.03998152406</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="5" t="n">
+        <v>3274.86001015113</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="5" t="n">
+        <v>3333.61469250783</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="5" t="n">
+        <v>3393.3149778536</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>3453.97180051821</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="5" t="n">
+        <v>3515.59607065367</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>3578.19866482983</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="5" t="n">
+        <v>3641.79041644863</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>3706.38210595417</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <v>3771.98445081772</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>3838.60809527844</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>3906.26359982224</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>3974.9614303826</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="5" t="n">
+        <v>4044.71194724852</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>4115.52539366597</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="5" t="n">
+        <v>4187.41188412036</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="5" t="n">
+        <v>4260.3813922886</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="5" t="n">
+        <v>4334.44373865026</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="5" t="n">
+        <v>4409.60857774847</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="5" t="n">
+        <v>4485.88538509176</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>4563.28344368939</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>4641.81183021308</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>4721.47940077926</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="5" t="n">
+        <v>4802.29477634659</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="5" t="n">
+        <v>4922.1298103448</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="5" t="n">
+        <v>5084.54157364436</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="5" t="n">
+        <v>5294.12470808458</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="5" t="n">
+        <v>5556.88334458703</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="5" t="n">
+        <v>5880.57131474349</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="5" t="n">
+        <v>6275.0939231774</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="5" t="n">
+        <v>6753.0277205674</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="5" t="n">
+        <v>7257.77507829381</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="5" t="n">
+        <v>7795.17883795749</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="5" t="n">
+        <v>8369.10663956892</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="5" t="n">
+        <v>8982.71515454642</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="5" t="n">
+        <v>9638.96255820935</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="5" t="n">
+        <v>10340.8180159663</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="5" t="n">
+        <v>11091.3487842018</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="5" t="n">
+        <v>11893.7575692098</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="5" t="n">
+        <v>12751.3993016859</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="5" t="n">
+        <v>13667.7889545874</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="5" t="n">
+        <v>14646.6049542436</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="5" t="n">
+        <v>15691.6898652021</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="5" t="n">
+        <v>16807.0488540435</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="5" t="n">
+        <v>17996.845943586</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="5" t="n">
+        <v>19265.3978487889</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="5" t="n">
+        <v>20617.1650752733</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="5" t="n">
+        <v>22056.7398950697</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="5" t="n">
+        <v>23588.8307660847</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="5" t="n">
+        <v>25218.2427221669</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="5" t="n">
+        <v>26949.8532265495</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="5" t="n">
+        <v>28788.5829527991</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="5" t="n">
+        <v>30739.3609355583</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="5" t="n">
+        <v>32807.0835205273</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3401,7 +6097,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>1154.12787301026</v>
+        <v>1013.74007774739</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -3412,7 +6108,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>1339.50872188411</v>
+        <v>1178.85290720958</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -3423,7 +6119,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>1528.99253307131</v>
+        <v>1368.20233426374</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3434,7 +6130,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>1722.61581035369</v>
+        <v>1561.74170181519</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3445,7 +6141,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>1917.85394791783</v>
+        <v>1759.50817970026</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3456,7 +6152,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>2111.54773600573</v>
+        <v>1958.92305551558</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3467,7 +6163,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="6" t="n">
-        <v>2300.5534139531</v>
+        <v>2156.75948697044</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3478,7 +6174,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>2482.02913829769</v>
+        <v>2349.80647336862</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3489,7 +6185,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>2653.58724753997</v>
+        <v>2535.1614515661</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3500,7 +6196,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>2832.68163172863</v>
+        <v>2710.38580930684</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3511,7 +6207,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>3017.00312866452</v>
+        <v>2893.30644318046</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3522,7 +6218,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>3205.53735884077</v>
+        <v>3081.56474361142</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3533,7 +6229,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>3397.86374261346</v>
+        <v>3274.12454315511</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3544,7 +6240,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>3593.8337500303</v>
+        <v>3470.55615881174</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3555,7 +6251,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>3793.42328306339</v>
+        <v>3670.70776674367</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3566,7 +6262,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>3996.66500777791</v>
+        <v>3874.55462935168</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3577,7 +6273,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="6" t="n">
-        <v>4203.61738870864</v>
+        <v>4082.12998060541</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3588,7 +6284,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="6" t="n">
-        <v>4414.35056688821</v>
+        <v>4293.49339798706</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3599,7 +6295,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="6" t="n">
-        <v>4628.93996322082</v>
+        <v>4508.71637815752</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3610,7 +6306,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="6" t="n">
-        <v>4847.46342081481</v>
+        <v>4727.87580315469</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3621,7 +6317,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="6" t="n">
-        <v>5069.99996462336</v>
+        <v>4951.05102123888</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3632,7 +6328,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="6" t="n">
-        <v>5296.62929669041</v>
+        <v>5178.32257964119</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3643,7 +6339,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="6" t="n">
-        <v>5527.43162280503</v>
+        <v>5409.77170865082</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3654,7 +6350,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="6" t="n">
-        <v>5762.48762559055</v>
+        <v>5645.48014419523</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3665,7 +6361,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="6" t="n">
-        <v>6001.87849966867</v>
+        <v>5885.53009997939</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3676,7 +6372,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="6" t="n">
-        <v>6245.686010687</v>
+        <v>6130.00430301744</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3687,7 +6383,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="6" t="n">
-        <v>6493.99256113818</v>
+        <v>6378.98605352621</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3698,7 +6394,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="6" t="n">
-        <v>6746.88125555752</v>
+        <v>6632.55929174236</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3709,7 +6405,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="6" t="n">
-        <v>7004.43596207659</v>
+        <v>6890.80866409075</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3720,7 +6416,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="6" t="n">
-        <v>7266.74136928578</v>
+        <v>7153.81958561613</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3731,7 +6427,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="6" t="n">
-        <v>7533.88303822865</v>
+        <v>7421.67829760829</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3742,7 +6438,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="6" t="n">
-        <v>7805.94744971706</v>
+        <v>7694.47192023922</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3753,7 +6449,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="6" t="n">
-        <v>8083.02204729406</v>
+        <v>7972.288500405</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3764,7 +6460,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="6" t="n">
-        <v>8365.19527620731</v>
+        <v>8255.21705510559</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3775,7 +6471,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="6" t="n">
-        <v>8652.55661874841</v>
+        <v>8543.34761073319</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3786,7 +6482,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="6" t="n">
-        <v>8945.19662628764</v>
+        <v>8836.77123863128</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3797,7 +6493,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="6" t="n">
-        <v>9243.20694830236</v>
+        <v>9135.58008726067</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3808,7 +6504,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="6" t="n">
-        <v>9546.68035866511</v>
+        <v>9439.86741127668</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3819,7 +6515,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="6" t="n">
-        <v>9855.71077942685</v>
+        <v>9749.72759778892</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3830,7 +6526,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="6" t="n">
-        <v>10170.3933023026</v>
+        <v>10065.2561900435</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3841,7 +6537,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="6" t="n">
-        <v>10490.824208041</v>
+        <v>10386.5499087393</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3852,7 +6548,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="6" t="n">
-        <v>10817.1009838358</v>
+        <v>10713.7066711624</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3863,7 +6559,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="6" t="n">
-        <v>11149.3223389166</v>
+        <v>11046.8256083013</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3874,7 +6570,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="6" t="n">
-        <v>11487.5882184382</v>
+        <v>11386.0070800808</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3885,7 +6581,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="6" t="n">
-        <v>11831.9998157678</v>
+        <v>11731.3526888371</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3896,7 +6592,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="6" t="n">
-        <v>12182.6595832603</v>
+        <v>12082.9652911362</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3907,7 +6603,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="6" t="n">
-        <v>12539.67124159</v>
+        <v>12440.9490080237</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3918,9 +6614,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="6" t="n">
-        <v>12903.1397877038</v>
+        <v>12805.4092337805</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="6" t="n">
+        <v>13176.4526432455</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="6" t="n">
+        <v>13554.1871977561</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="6" t="n">
+        <v>13938.7221497457</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="6" t="n">
+        <v>14330.1680460312</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>14728.636729812</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>15134.2413413965</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="6" t="n">
+        <v>15547.0963176667</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>15967.3173902813</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="6" t="n">
+        <v>16395.0215826184</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="6" t="n">
+        <v>16830.3272054474</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="6" t="n">
+        <v>17273.3538513212</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="6" t="n">
+        <v>17724.2223876714</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="6" t="n">
+        <v>18183.0549485881</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="6" t="n">
+        <v>18649.9749252624</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="6" t="n">
+        <v>19125.1069550645</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="6" t="n">
+        <v>19608.5769092306</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>20100.5118791281</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="6" t="n">
+        <v>20601.0401610649</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="6" t="n">
+        <v>21110.2912396094</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="6" t="n">
+        <v>21628.395769383</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="6" t="n">
+        <v>22155.4855552885</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="6" t="n">
+        <v>22691.6935311324</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="6" t="n">
+        <v>23237.1537366016</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="6" t="n">
+        <v>23792.0012925511</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="6" t="n">
+        <v>24356.3723745596</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="6" t="n">
+        <v>24930.4041847083</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="6" t="n">
+        <v>25514.2349215382</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="6" t="n">
+        <v>26108.0037481391</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="6" t="n">
+        <v>26711.8507583251</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="6" t="n">
+        <v>27325.916940849</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="6" t="n">
+        <v>27950.3441416086</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="6" t="n">
+        <v>28623.138506418</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="6" t="n">
+        <v>29347.9924394103</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="6" t="n">
+        <v>30132.0601911312</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="6" t="n">
+        <v>30985.2728875634</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="6" t="n">
+        <v>31920.2456971257</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="6" t="n">
+        <v>32952.565032844</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="6" t="n">
+        <v>34101.3658349763</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="6" t="n">
+        <v>35317.6504536886</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="6" t="n">
+        <v>36616.151065078</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="6" t="n">
+        <v>38006.6027672854</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="6" t="n">
+        <v>39496.9763526686</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="6" t="n">
+        <v>41094.7937230245</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="6" t="n">
+        <v>42807.6707631789</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="6" t="n">
+        <v>44643.5488800735</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="6" t="n">
+        <v>46610.8009803684</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="6" t="n">
+        <v>48718.2866379373</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="6" t="n">
+        <v>50975.3864270015</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="6" t="n">
+        <v>53392.0273174836</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="6" t="n">
+        <v>55978.703708567</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="6" t="n">
+        <v>58746.4956904226</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="6" t="n">
+        <v>61707.0848828505</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="6" t="n">
+        <v>64872.7676590826</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="6" t="n">
+        <v>68256.4653022786</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="6" t="n">
+        <v>71871.7304918798</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="6" t="n">
+        <v>75732.7494090535</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="6" t="n">
+        <v>79854.3386582681</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="6" t="n">
+        <v>84251.9361157236</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="6" t="n">
+        <v>88941.5847321669</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="6" t="n">
+        <v>93939.9082379827</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="6" t="n">
+        <v>99264.0776244738</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4685,37 +8052,37 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>148</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157">
@@ -4725,27 +8092,27 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>154</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
@@ -4900,27 +8267,27 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="198">
@@ -4930,272 +8297,272 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>5</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>190</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>192</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>5</v>
+        <v>195</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>5</v>
+        <v>208</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>5</v>
+        <v>212</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>211</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>212</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>5</v>
+        <v>208</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>218</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>5</v>
+        <v>221</v>
       </c>
     </row>
     <row r="253">
@@ -5205,17 +8572,17 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>222</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257">
@@ -5225,32 +8592,32 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>225</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
     </row>
     <row r="264">
@@ -5260,22 +8627,22 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>229</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>230</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269">
@@ -5430,81 +8797,101 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>7</v>
+        <v>264</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>263</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>13</v>
+        <v>267</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
         <v>5</v>
       </c>
     </row>

--- a/vignettes/Alameda-May4-v4 output.xlsx
+++ b/vignettes/Alameda-May4-v4 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-07 13:12:34"</t>
+    <t xml:space="preserve">[1] "2020-05-07 13:55:22"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v4 output.xlsx
+++ b/vignettes/Alameda-May4-v4 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-07 13:55:22"</t>
+    <t xml:space="preserve">[1] "2020-05-08 11:21:45"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v4 output.xlsx
+++ b/vignettes/Alameda-May4-v4 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-08 11:21:45"</t>
+    <t xml:space="preserve">[1] "2020-05-14 09:14:53"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">     version </t>
   </si>
   <si>
-    <t xml:space="preserve">"0.3.0.9004" </t>
+    <t xml:space="preserve">"0.3.0.9005" </t>
   </si>
   <si>
     <t xml:space="preserve">$hosp.bounds</t>

--- a/vignettes/Alameda-May4-v4 output.xlsx
+++ b/vignettes/Alameda-May4-v4 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-14 09:14:53"</t>
+    <t xml:space="preserve">[1] "2020-05-16 17:06:22"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">     version </t>
   </si>
   <si>
-    <t xml:space="preserve">"0.3.0.9005" </t>
+    <t xml:space="preserve">"0.3.0.9006" </t>
   </si>
   <si>
     <t xml:space="preserve">$hosp.bounds</t>

--- a/vignettes/Alameda-May4-v4 output.xlsx
+++ b/vignettes/Alameda-May4-v4 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-16 17:06:22"</t>
+    <t xml:space="preserve">[1] "2020-05-18 12:23:06"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v4 output.xlsx
+++ b/vignettes/Alameda-May4-v4 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-18 12:23:06"</t>
+    <t xml:space="preserve">[1] "2020-06-17 14:39:01"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
